--- a/calendario_clube.xlsx
+++ b/calendario_clube.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E032E22C-3D70-46CB-82CC-A3F01887A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E3E33-F891-41BF-A03B-4C2FEFE7922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="14" r:id="rId1"/>
@@ -23,20 +23,20 @@
   </sheets>
   <definedNames>
     <definedName name="AnoCalendário">Janeiro!$K$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Abril!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Agosto!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">Dezembro!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Fevereiro!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Janeiro!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Julho!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Junho!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Maio!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Março!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">Novembro!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Outubro!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Setembro!$A:$I</definedName>
     <definedName name="DiasESemanas">{0,1,2,3,4,5,6} + {0;1;2;3;4;5}*7</definedName>
     <definedName name="InícioDaSemana">Janeiro!$L$5</definedName>
+    <definedName name="Print_Area" localSheetId="3">Abril!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="7">Agosto!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="11">Dezembro!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="1">Fevereiro!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="0">Janeiro!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="6">Julho!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="5">Junho!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="4">Maio!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="2">Março!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="10">Novembro!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="9">Outubro!$A:$I</definedName>
+    <definedName name="Print_Area" localSheetId="8">Setembro!$A:$I</definedName>
     <definedName name="RegiãoTítuloColuna1..H12.1">Janeiro!$B$3</definedName>
     <definedName name="RegiãoTítuloColuna1..H12.10">Outubro!$B$3</definedName>
     <definedName name="RegiãoTítuloColuna1..H12.11">Novembro!$B$3</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Anotações</t>
   </si>
@@ -92,6 +92,122 @@
   <si>
     <t>domingo</t>
   </si>
+  <si>
+    <t>Capítulo 1</t>
+  </si>
+  <si>
+    <t>Capítulo 1 e 2</t>
+  </si>
+  <si>
+    <t>Capítulo 2 e 3</t>
+  </si>
+  <si>
+    <t>Capítulo 3 e 4</t>
+  </si>
+  <si>
+    <t>Capítulo 4 e 5</t>
+  </si>
+  <si>
+    <t>Capítulo 5 e 6</t>
+  </si>
+  <si>
+    <t>Capítulo 6 e 7</t>
+  </si>
+  <si>
+    <t>Capítulo 7 e 8</t>
+  </si>
+  <si>
+    <t>Capítulo 8</t>
+  </si>
+  <si>
+    <t>Capítulo 8 e 9</t>
+  </si>
+  <si>
+    <t>Capítulo 9 e 10</t>
+  </si>
+  <si>
+    <t>Capítulo 10</t>
+  </si>
+  <si>
+    <t>Capítulo 10 e 11</t>
+  </si>
+  <si>
+    <t>Capítulo 11 e 12</t>
+  </si>
+  <si>
+    <t>Capítulo 12</t>
+  </si>
+  <si>
+    <t>Capítulo 12 e 13</t>
+  </si>
+  <si>
+    <t>Capítulo 13 e 14</t>
+  </si>
+  <si>
+    <t>Capítulo 14</t>
+  </si>
+  <si>
+    <t>Capítulo 14 e 15</t>
+  </si>
+  <si>
+    <t>Capítulo 15</t>
+  </si>
+  <si>
+    <t>O Homem que era Quinta-feira - G. K. Chesterton</t>
+  </si>
+  <si>
+    <t>O Fantasma da Ópera - Gaston Leroux</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Lucida Bright"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>➥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Lucida Bright"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Encontros de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Lucida Bright"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O Homem que era Quinta-feira:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Lucida Bright"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18/09 e 02/10</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +220,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -382,8 +498,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +774,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -870,7 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -958,6 +1147,36 @@
     <xf numFmtId="166" fontId="16" fillId="7" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="40" fillId="38" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="38" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -988,14 +1207,17 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1310,23 +1532,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1289816</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42345</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Edifícios e uma árvore no outono" title="Cabeçalho de Outono">
+        <xdr:cNvPr id="9" name="Imagem 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54507EE1-00DE-425A-BFBF-AE24BC538E19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,21 +1556,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5414141" y="114300"/>
-          <a:ext cx="4187059" cy="1143000"/>
+          <a:off x="8154228" y="8280"/>
+          <a:ext cx="1308342" cy="1312898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1850,23 +2067,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1289816</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42345</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
+      <xdr:rowOff>406778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Edifícios e uma árvore no outono" title="Cabeçalho de Outono">
+        <xdr:cNvPr id="25" name="Imagem 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39986E6F-7C8D-45D0-B295-EF465CBE5374}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,21 +2091,104 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5414141" y="114300"/>
-          <a:ext cx="4187059" cy="1143000"/>
+          <a:off x="8158369" y="8280"/>
+          <a:ext cx="1309585" cy="1309585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE9B42F-3017-471F-A009-8A769BB1B492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="3267075"/>
+          <a:ext cx="447674" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B08178B-0DF1-4081-8CC7-E7F0FA4805DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="4991100"/>
+          <a:ext cx="447674" cy="447674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2130,12 +2430,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="39" t="str">
         <f>"Janeiro "&amp;AnoCalendário</f>
         <v>Janeiro 2021</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2171,10 +2471,10 @@
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="32"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
@@ -2372,23 +2672,23 @@
       <c r="C14" s="25">
         <v>44228</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2446,7 +2746,9 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2457,20 +2759,25 @@
     <col min="11" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="52" t="str">
+        <f>"Outubro "&amp;AnoCalendário</f>
+        <v>Outubro 2021</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="str">
-        <f>"Outubro "&amp;AnoCalendário</f>
-        <v>Outubro 2021</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
@@ -2689,29 +2996,29 @@
       <c r="C14" s="26">
         <v>44501</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="B12:H12 B14:C14">
     <cfRule type="expression" dxfId="5" priority="2">
@@ -2726,7 +3033,7 @@
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Dia da semana determinado automaticamente" sqref="C3:H3" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Calendário do mês de outubro" sqref="A1" xr:uid="{00000000-0002-0000-0900-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O ano nesta célula é atualizado automaticamente com base no ano inserido na planilha de janeiro. O calendário abaixo tem datas dos meses anterior e seguinte com sombreamento de fonte mais claro." sqref="B2:D2" xr:uid="{00000000-0002-0000-0900-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O ano nesta célula é atualizado automaticamente com base no ano inserido na planilha de janeiro. O calendário abaixo tem datas dos meses anterior e seguinte com sombreamento de fonte mais claro." sqref="B1:D2" xr:uid="{737BC7D9-F3FE-4B0B-BE64-B1FCD496530D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta linha contém os nomes de dias da semana para este calendário. Esta célula contém o dia de início da semana. Para alterar o dia de início, insira um novo dia na célula L5 da planilha de janeiro." sqref="B3" xr:uid="{00000000-0002-0000-0900-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Insira anotações mensais na célula abaixo" sqref="D14:H14" xr:uid="{00000000-0002-0000-0900-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Insira anotações mensais nesta célula" sqref="D15:H15" xr:uid="{00000000-0002-0000-0900-000005000000}"/>
@@ -2766,12 +3073,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="52" t="str">
         <f>"Novembro "&amp;AnoCalendário</f>
         <v>Novembro 2021</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2992,23 +3299,23 @@
       <c r="C14" s="26">
         <v>44536</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3068,12 +3375,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="39" t="str">
         <f>"Dezembro "&amp;AnoCalendário</f>
         <v>Dezembro 2021</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3294,23 +3601,23 @@
       <c r="C14" s="25">
         <v>44564</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3370,12 +3677,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="39" t="str">
         <f>"Fevereiro "&amp;AnoCalendário</f>
         <v>Fevereiro 2021</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3596,23 +3903,23 @@
       <c r="C14" s="25">
         <v>44263</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3673,12 +3980,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="str">
+      <c r="B2" s="43" t="str">
         <f>"Março "&amp;AnoCalendário</f>
         <v>Março 2021</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3899,23 +4206,23 @@
       <c r="C14" s="28">
         <v>44291</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3976,12 +4283,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="str">
+      <c r="B2" s="43" t="str">
         <f>"Abril "&amp;AnoCalendário</f>
         <v>Abril 2021</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4202,23 +4509,23 @@
       <c r="C14" s="28">
         <v>44319</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4279,12 +4586,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="str">
+      <c r="B2" s="43" t="str">
         <f>"Maio "&amp;AnoCalendário</f>
         <v>Maio 2021</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4505,23 +4812,23 @@
       <c r="C14" s="28">
         <v>44347</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4582,12 +4889,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="str">
+      <c r="B2" s="46" t="str">
         <f>"Junho "&amp;AnoCalendário</f>
         <v>Junho 2021</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4808,23 +5115,23 @@
       <c r="C14" s="27">
         <v>44382</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4887,12 +5194,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="str">
+      <c r="B2" s="46" t="str">
         <f>"Julho "&amp;AnoCalendário</f>
         <v>Julho 2021</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5113,23 +5420,23 @@
       <c r="C14" s="27">
         <v>44410</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5190,12 +5497,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="str">
+      <c r="B2" s="46" t="str">
         <f>"Agosto "&amp;AnoCalendário</f>
         <v>Agosto 2021</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5416,23 +5723,23 @@
       <c r="C14" s="27">
         <v>44445</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5474,9 +5781,11 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5487,24 +5796,29 @@
     <col min="11" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="52" t="str">
+        <f>"Setembro "&amp;AnoCalendário</f>
+        <v>Setembro 2021</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="str">
-        <f>"Setembro "&amp;AnoCalendário</f>
-        <v>Setembro 2021</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="23" t="str">
         <f>InícioDaSemana</f>
@@ -5535,7 +5849,7 @@
         <v>sábado</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="24">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+1</f>
@@ -5560,7 +5874,7 @@
         <v>44443</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5570,7 +5884,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="26">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+8</f>
@@ -5595,7 +5909,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -5605,7 +5919,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="24">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+15</f>
@@ -5626,21 +5940,34 @@
       <c r="G8" s="24">
         <v>44456</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="34">
         <v>44457</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="26">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+22</f>
@@ -5665,17 +5992,31 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="24">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+29</f>
@@ -5693,24 +6034,38 @@
       <c r="F12" s="24">
         <v>44469</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="37">
         <v>44470</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="38">
         <v>44471</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="26">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+36</f>
@@ -5719,29 +6074,31 @@
       <c r="C14" s="26">
         <v>44473</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="D15" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="B12:H12 B14:C14">
     <cfRule type="expression" dxfId="7" priority="2">
@@ -5755,7 +6112,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Dia da semana determinado automaticamente" sqref="C3:H3" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O ano nesta célula é atualizado automaticamente com base no ano inserido na planilha de janeiro. O calendário abaixo tem datas dos meses anterior e seguinte com sombreamento de fonte mais claro." sqref="B2:D2" xr:uid="{00000000-0002-0000-0800-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O ano nesta célula é atualizado automaticamente com base no ano inserido na planilha de janeiro. O calendário abaixo tem datas dos meses anterior e seguinte com sombreamento de fonte mais claro." sqref="B1:D2" xr:uid="{00000000-0002-0000-0800-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Calendário do mês de setembro" sqref="A1" xr:uid="{00000000-0002-0000-0800-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta linha e as linhas 6, 8, 10, 12 e 14 contêm os dias da semana do calendário. Se esta célula não inclui o número 1, então ela representa um dia do mês anterior. Insira anotações na célula D15." sqref="B4" xr:uid="{00000000-0002-0000-0800-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta linha e as linhas 7, 9, 11, 13 e 15 são células para inserir anotações diárias relacionadas ao dia do calendário na célula acima." sqref="B5" xr:uid="{00000000-0002-0000-0800-000004000000}"/>
@@ -5772,6 +6129,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5992,15 +6358,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6011,6 +6368,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9DC8601-1110-494A-8C5D-E21BD4AA5AA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61EF227C-DC09-4996-BA58-3E29E07C9A77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6029,16 +6403,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9DC8601-1110-494A-8C5D-E21BD4AA5AA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7550ED7A-F40D-4202-BC8A-572A5FDC2D5C}">
   <ds:schemaRefs>
